--- a/csec/database/POB data.xlsx
+++ b/csec/database/POB data.xlsx
@@ -11,12 +11,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2023 P032.pdf</t>
+  </si>
+  <si>
+    <t>1vW4SZOPd_fFa3UdT6EazFcVCGoqqnwTb</t>
+  </si>
+  <si>
+    <t>CSEC POB June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1j-FFad8p1qMyQpUJnxhH0d9NvKsr8ivr</t>
+  </si>
+  <si>
+    <t>CSEC POB June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1TQNY5edv4Ac1Ffzg64G3LX911FoWEwBx</t>
+  </si>
+  <si>
+    <t>CSEC POB June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>189cnI6J9y8eaeh2946vhD4ojlZfElyOT</t>
+  </si>
+  <si>
+    <t>CSEC POB June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1W8OXjjX6vTMfPGKmZkUP1pEoPdNJuoaV</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1YpCGZvGO-qnPqp2nuQfGDRtQH7Tg_WGs</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1z1n1d88_15pAmZ6BSWem4d018NzRfDSr</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1MRwj2J-akEvHyMq-6cZSeAip7dfrARRD</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>12zmukjntJmv7_kMnpGV0pMITBxlD_h38</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1pKYOHDz_L1QvV9gtNSeCatU_CnFgbN3h</t>
+  </si>
+  <si>
+    <t>CSEC POB January 2024 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Obk0ndzrE-KuYmeck7v25xDdFLROe7mc</t>
   </si>
   <si>
     <t>CSEC POB June 2017 P2.pdf</t>
@@ -939,6 +1005,94 @@
         <v>95</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
